--- a/practice_1/rules_table.xlsx
+++ b/practice_1/rules_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t xml:space="preserve">Методы</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">S_7 - Реализуемость траектории Метода манёвра (1/0)</t>
   </si>
   <si>
-    <t xml:space="preserve">S_8 — Наличие перегрузки (1/0)</t>
+    <t xml:space="preserve">S_8 — Допустимость перегрузки (1/0)</t>
   </si>
   <si>
     <t xml:space="preserve">S_доп - Длина траектории (3/2/1)</t>
@@ -253,7 +253,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,10 +293,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.31"/>
@@ -406,11 +406,11 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>0</v>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>1</v>
@@ -438,11 +438,11 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>0</v>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
